--- a/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>7.4505396377507056</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.3135531349879157</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.5030850735003654</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.8794736883538299</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.2690059624741998</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.1970188228615886</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4.7419584743222298</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.5534167984772571</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.6124841682395274</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.1228537930869775</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.9622294509205425</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.6234427518280432</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7.3099930753124456</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.0637421277820867</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.1071917511389433</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.304931079724291</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.2841422700928815</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>7.0297378629488305</v>
@@ -588,55 +477,55 @@
         <v>6.1981931990327777</v>
       </c>
       <c r="AA2">
-        <v>9.1460106370723899</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>8.8641713800272584</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.3411221865432061</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.6383982877469787</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.3591694036120678</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.0479158854418023</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>6.9467379865621206</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.8823885572293664</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>9.1309862475692398</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.7148039636924395</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.3236960686039296</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.5229858318679108</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>6.1868900718345197</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.9414908877550401</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.6720422114642792</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>5.7692898167767925</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.1128034389697872</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>7.3419319102389764</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>7.7402292797706247</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.8735784685565733</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.9617964579788065</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.9492740221367351</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9508545518325127</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.8256147780471714</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.8927988957873065</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.8030285743207228</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.2256704049383469</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.2884607391507288</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.3244358150588234</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.9319779377897568</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.2880561177984298</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.4550762181419969</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.0184160631556853</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.1524380792045017</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.8061620425162186</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>5.9053382963425465</v>
@@ -743,55 +629,55 @@
         <v>4.9211586299382537</v>
       </c>
       <c r="AA3">
-        <v>9.1289854986712822</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.3911285738764843</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.732472047312756</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>10.052197000995138</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>7.9885677746153805</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.7049748122173636</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>7.2643448262978554</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>7.1386355718247323</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.9659129509045563</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>9.131266442630011</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>10.331843553281699</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.8349530047786962</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.0647960868018229</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.2646165724020548</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.0111557022830873</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.6734440883449446</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>5.5417768326577086</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>7.7859049013104267</v>

--- a/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.4505396377507056</v>
+        <v>5.0637421277820867</v>
       </c>
       <c r="C2">
-        <v>7.3135531349879157</v>
+        <v>4.2841422700928815</v>
       </c>
       <c r="D2">
-        <v>8.5030850735003654</v>
+        <v>6.9414908877550401</v>
       </c>
       <c r="E2">
-        <v>8.8794736883538299</v>
+        <v>6.1128034389697872</v>
       </c>
       <c r="F2">
         <v>6.2690059624741998</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.7402292797706247</v>
+        <v>4.4550762181419969</v>
       </c>
       <c r="C3">
-        <v>7.8735784685565733</v>
+        <v>6.8061620425162186</v>
       </c>
       <c r="D3">
-        <v>6.9617964579788065</v>
+        <v>7.2646165724020548</v>
       </c>
       <c r="E3">
-        <v>6.9492740221367351</v>
+        <v>5.5698631668856535</v>
       </c>
       <c r="F3">
         <v>5.9508545518325127</v>

--- a/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.4505396377507056</v>
+        <v>7.3099930753124456</v>
       </c>
       <c r="C2">
-        <v>7.3135531349879157</v>
+        <v>5.0637421277820867</v>
       </c>
       <c r="D2">
-        <v>8.5030850735003654</v>
+        <v>6.1868900718345197</v>
       </c>
       <c r="E2">
-        <v>8.8794736883538299</v>
+        <v>6.9414908877550401</v>
       </c>
       <c r="F2">
         <v>6.2690059624741998</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.7402292797706247</v>
+        <v>6.2880561177984298</v>
       </c>
       <c r="C3">
-        <v>7.8735784685565733</v>
+        <v>4.4550762181419969</v>
       </c>
       <c r="D3">
-        <v>6.9617964579788065</v>
+        <v>6.0647960868018229</v>
       </c>
       <c r="E3">
-        <v>6.9492740221367351</v>
+        <v>7.2646165724020548</v>
       </c>
       <c r="F3">
         <v>5.9508545518325127</v>

--- a/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_leg_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.3099930753124456</v>
+        <v>7.4505396377507056</v>
       </c>
       <c r="C2">
-        <v>5.0637421277820867</v>
+        <v>7.3135531349879157</v>
       </c>
       <c r="D2">
-        <v>6.1868900718345197</v>
+        <v>8.5030850735003654</v>
       </c>
       <c r="E2">
-        <v>6.9414908877550401</v>
+        <v>8.8794736883538299</v>
       </c>
       <c r="F2">
         <v>6.2690059624741998</v>
@@ -668,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.2880561177984298</v>
+        <v>7.7402292797706247</v>
       </c>
       <c r="C3">
-        <v>4.4550762181419969</v>
+        <v>7.8735784685565733</v>
       </c>
       <c r="D3">
-        <v>6.0647960868018229</v>
+        <v>6.9617964579788065</v>
       </c>
       <c r="E3">
-        <v>7.2646165724020548</v>
+        <v>6.9492740221367351</v>
       </c>
       <c r="F3">
         <v>5.9508545518325127</v>
